--- a/sandbox/JH/02_meta_names/metaframework.xlsx
+++ b/sandbox/JH/02_meta_names/metaframework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\sandbox\JH\02_meta_names\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A80D17E-13A8-4ABE-B5F0-3F6ACFFC9061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035A92E5-204E-4917-BC4C-18F447DA0B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="107">
   <si>
     <t>label_Framework</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>Scotian_Shelf_CO</t>
+  </si>
+  <si>
+    <t>Indicator; Productivity</t>
   </si>
 </sst>
 </file>
@@ -692,13 +695,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="201.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1050,7 +1056,7 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>

--- a/sandbox/JH/02_meta_names/metaframework.xlsx
+++ b/sandbox/JH/02_meta_names/metaframework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\sandbox\JH\02_meta_names\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035A92E5-204E-4917-BC4C-18F447DA0B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEEEE1B-239F-4D39-B62A-2A6588717255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="106">
   <si>
     <t>label_Framework</t>
   </si>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>Manage the disturbance of benthic habitat that supports juvenile and adult haddock and other groundfish species</t>
-  </si>
-  <si>
-    <t>Key Fish Habitat</t>
   </si>
   <si>
     <t>3, 5, 9</t>
@@ -695,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -704,7 +701,8 @@
     <col min="1" max="1" width="38.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="201.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7265625" customWidth="1"/>
+    <col min="4" max="4" width="40.81640625" customWidth="1"/>
+    <col min="5" max="5" width="30.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1047,7 +1045,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -1056,7 +1054,7 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
@@ -1073,7 +1071,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -1082,7 +1080,7 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -1094,44 +1092,44 @@
         <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
         <v>54</v>
       </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
         <v>55</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1140,24 +1138,24 @@
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
         <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
@@ -1166,24 +1164,24 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
       </c>
       <c r="D19" t="s">
         <v>34</v>
@@ -1192,7 +1190,7 @@
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
@@ -1203,13 +1201,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -1218,76 +1216,76 @@
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
         <v>65</v>
-      </c>
-      <c r="D21" t="s">
-        <v>66</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
         <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>69</v>
       </c>
       <c r="E22" t="s">
         <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" t="s">
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1296,346 +1294,346 @@
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
         <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
         <v>73</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>74</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
       </c>
       <c r="E24" t="s">
         <v>29</v>
       </c>
       <c r="F24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
         <v>76</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
         <v>73</v>
       </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
         <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
         <v>73</v>
       </c>
-      <c r="B26" t="s">
-        <v>74</v>
-      </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
         <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
         <v>73</v>
       </c>
-      <c r="B27" t="s">
-        <v>74</v>
-      </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
         <v>73</v>
       </c>
-      <c r="B28" t="s">
-        <v>74</v>
-      </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
         <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
         <v>73</v>
       </c>
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
         <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s">
         <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
         <v>73</v>
       </c>
-      <c r="B30" t="s">
-        <v>74</v>
-      </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s">
         <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
         <v>73</v>
       </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s">
         <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
         <v>73</v>
       </c>
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32" t="s">
         <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
         <v>73</v>
       </c>
-      <c r="B33" t="s">
-        <v>74</v>
-      </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
         <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
         <v>73</v>
       </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s">
         <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
         <v>73</v>
       </c>
-      <c r="B35" t="s">
-        <v>74</v>
-      </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E35" t="s">
         <v>23</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s">
         <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
         <v>73</v>
       </c>
-      <c r="B36" t="s">
-        <v>74</v>
-      </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
         <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
         <v>73</v>
       </c>
-      <c r="B37" t="s">
-        <v>74</v>
-      </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37" t="s">
         <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s">
         <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
         <v>73</v>
       </c>
-      <c r="B38" t="s">
-        <v>74</v>
-      </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s">
         <v>19</v>
@@ -1646,48 +1644,48 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
         <v>73</v>
       </c>
-      <c r="B39" t="s">
-        <v>74</v>
-      </c>
       <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
         <v>101</v>
-      </c>
-      <c r="E39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
         <v>73</v>
       </c>
-      <c r="B40" t="s">
-        <v>74</v>
-      </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s">
         <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/sandbox/JH/02_meta_names/metaframework.xlsx
+++ b/sandbox/JH/02_meta_names/metaframework.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\sandbox\JH\02_meta_names\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEEEE1B-239F-4D39-B62A-2A6588717255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58793AC2-A641-4A33-8D3C-9D8F6B61D88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,7 +337,7 @@
     <t>Scotian_Shelf_CO</t>
   </si>
   <si>
-    <t>Indicator; Productivity</t>
+    <t>Indicator; Biomass Metrics</t>
   </si>
 </sst>
 </file>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
